--- a/ML_Tasks.xlsx
+++ b/ML_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoBackup\svn\V2X_Comunication\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Autonomous_A\Machine-Learning-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE21D0D-C7AA-40BF-8202-405EA4170D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58713A37-D3AA-4F5A-8A6B-9B73EB68EEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44940" yWindow="1815" windowWidth="12600" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Status</t>
   </si>
@@ -125,6 +125,33 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Prof said has to write a summary even if there is a realted work in tex file</t>
+  </si>
+  <si>
+    <t>UI/UX Ai model app presented and ready</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line following  transfer data ansd dmap </t>
+  </si>
+  <si>
+    <t>More MATHS &amp; Other Regrissions</t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maths ,  all  regrission , performance , optimiaziaiton with  svms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">more svms </t>
   </si>
 </sst>
 </file>
@@ -156,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,24 +198,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,6 +221,43 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -232,22 +284,22 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -564,8 +616,11 @@
     <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="63" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -610,7 +665,7 @@
       <c r="C3" s="5">
         <v>45767</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>45778</v>
       </c>
       <c r="E3" s="4"/>
@@ -625,9 +680,7 @@
       <c r="C4" s="5">
         <v>45767</v>
       </c>
-      <c r="D4" s="7">
-        <v>45778</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -640,9 +693,7 @@
       <c r="C5" s="5">
         <v>45767</v>
       </c>
-      <c r="D5" s="7">
-        <v>45778</v>
-      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -655,9 +706,7 @@
       <c r="C6" s="5">
         <v>45767</v>
       </c>
-      <c r="D6" s="7">
-        <v>45778</v>
-      </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -665,12 +714,12 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7">
-        <v>45778</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45767</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -678,40 +727,40 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7">
-        <v>45778</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45784</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45767</v>
-      </c>
-      <c r="D9" s="7">
-        <v>45778</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7">
-        <v>45778</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45767</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -719,15 +768,15 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45767</v>
-      </c>
-      <c r="D11" s="7">
-        <v>45778</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -739,20 +788,24 @@
       <c r="C12" s="5">
         <v>45772</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45784</v>
+      </c>
+      <c r="D13" s="9">
         <v>45786</v>
       </c>
       <c r="E13" s="4"/>
@@ -762,12 +815,12 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8">
-        <v>45786</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45784</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -778,90 +831,106 @@
         <v>2</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="8">
-        <v>45786</v>
-      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>45793</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="9">
-        <v>45800</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="D17" s="7">
+        <v>45793</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="9">
-        <v>45807</v>
+      <c r="D18" s="7">
+        <v>45800</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>45807</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="9">
-        <v>45814</v>
+      <c r="D20" s="7">
+        <v>45807</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7">
+        <v>45814</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D13:D15"/>
+  </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Not yet"</formula>
